--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ReportingProjet\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC7CC2D-8226-4F66-A93A-24562FCC373F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AFB700-13BA-42D3-8C6C-7CC739C3E6AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -52,12 +53,6 @@
     <t>FLUX</t>
   </si>
   <si>
-    <t>MGEFI</t>
-  </si>
-  <si>
-    <t>BENEFICIAIRE</t>
-  </si>
-  <si>
     <t>extractionrcforce</t>
   </si>
   <si>
@@ -299,6 +294,42 @@
   </si>
   <si>
     <t>suivisaisieprodite</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC FORCE</t>
+  </si>
+  <si>
+    <t>Extraction_RC_FORCE</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_RC FORCE/</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAVMGEFI/</t>
+  </si>
+  <si>
+    <t>OK / KO</t>
+  </si>
+  <si>
+    <t>favmgefi</t>
+  </si>
+  <si>
+    <t>\RETOUR_FAVMGEFI</t>
+  </si>
+  <si>
+    <t>FACTURE_MGEFI</t>
+  </si>
+  <si>
+    <t>.xls</t>
+  </si>
+  <si>
+    <t>Trame</t>
+  </si>
+  <si>
+    <t>\RETOUR_ADHESION_LAMIE</t>
+  </si>
+  <si>
+    <t>Trame Flux 929</t>
   </si>
 </sst>
 </file>
@@ -658,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0796AD-0BCD-474C-83F2-122B75657A4B}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,305 +704,105 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="56.85546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="37.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4">
-        <v>20210302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5">
-        <v>20210301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1032,25 +863,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1058,25 +889,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1084,25 +915,25 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1110,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1136,25 +967,25 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,25 +993,25 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2">
         <v>44259</v>
@@ -1191,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
       </c>
       <c r="I8">
         <v>20210203</v>
@@ -1223,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1257,4 +1088,287 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0815CED-B4AB-48E0-A37D-F2254F8395E5}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AFB700-13BA-42D3-8C6C-7CC739C3E6AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E5488-2C43-4039-9074-FE9932458561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView minimized="1" xWindow="1140" yWindow="960" windowWidth="20655" windowHeight="10920" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -323,13 +323,16 @@
     <t>.xls</t>
   </si>
   <si>
-    <t>Trame</t>
-  </si>
-  <si>
-    <t>\RETOUR_ADHESION_LAMIE</t>
-  </si>
-  <si>
-    <t>Trame Flux 929</t>
+    <t>\RETOUR_FAVEOLE</t>
+  </si>
+  <si>
+    <t>FACTURE HTP GENERALI FAV</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAVEOLE/</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAV/</t>
   </si>
 </sst>
 </file>
@@ -689,20 +692,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0796AD-0BCD-474C-83F2-122B75657A4B}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="89.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="56.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="37.85546875" customWidth="1"/>
@@ -714,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,31 +749,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,31 +781,45 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E5488-2C43-4039-9074-FE9932458561}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC24CC07-F1A6-4545-BBBD-1D08F59FC1A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1140" yWindow="960" windowWidth="20655" windowHeight="10920" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="185">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -333,13 +333,262 @@
   </si>
   <si>
     <t>/RETOUR_FAV/</t>
+  </si>
+  <si>
+    <t>hospidemat</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR DEMAT/RETOUR DEMAT TEMPO/</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR DEMAT\RETOUR DEMAT TEMPO</t>
+  </si>
+  <si>
+    <t>Retour demat</t>
+  </si>
+  <si>
+    <t>Inona no atao amle feuille be dia be</t>
+  </si>
+  <si>
+    <t>/RETOUR_CONVENTION/</t>
+  </si>
+  <si>
+    <t>Tâches effectuées</t>
+  </si>
+  <si>
+    <t>\RETOUR_CONVENTION</t>
+  </si>
+  <si>
+    <t>convention</t>
+  </si>
+  <si>
+    <t>retourconventionsaisiedesconventions</t>
+  </si>
+  <si>
+    <t>\RETOUR_MAJ_RIB_CBTP</t>
+  </si>
+  <si>
+    <t>RIB CBTP</t>
+  </si>
+  <si>
+    <t>/RETOUR_TPMEP/</t>
+  </si>
+  <si>
+    <t>\RETOUR_TPMEP</t>
+  </si>
+  <si>
+    <t>TPMEP</t>
+  </si>
+  <si>
+    <t>/RETOUR_CURE_THERMALE/</t>
+  </si>
+  <si>
+    <t>\RETOUR_CURE_THERMALE</t>
+  </si>
+  <si>
+    <t>CURE</t>
+  </si>
+  <si>
+    <t>\RETOUR_MAJ_AGAPS_INTER_AMC</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>/RETOUR_TPS/RETOUR_RECLAMATION TIERS/ALMERYS/</t>
+  </si>
+  <si>
+    <t>retourreclamtramereclamationtiers</t>
+  </si>
+  <si>
+    <t>\RETOUR_TPS\RETOUR_RECLAMATION TIERS\ALMERYS</t>
+  </si>
+  <si>
+    <t>Reclamation Tiers</t>
+  </si>
+  <si>
+    <t>\RETOUR_SE\RETOUR_RECLAMATION SE\ALMERYS</t>
+  </si>
+  <si>
+    <t>Etat fin de traitement N1</t>
+  </si>
+  <si>
+    <t>Reclamation_SE</t>
+  </si>
+  <si>
+    <t>reclamsetramereclamationse</t>
+  </si>
+  <si>
+    <t>/RETOUR_SE/RETOUR_RECLAMATION SE/ALMERYS/</t>
+  </si>
+  <si>
+    <t>/RETOUR_DENTAIRE/RETOUR_FACTURE_DENTAIRE/</t>
+  </si>
+  <si>
+    <t>dentaireretourfacturedentaireetcds</t>
+  </si>
+  <si>
+    <t>\RETOUR_DENTAIRE\RETOUR_FACTURE_DENTAIRE</t>
+  </si>
+  <si>
+    <t>Facture Dentaire et CdS</t>
+  </si>
+  <si>
+    <t>\RETOUR_OPTIQUE\RETOUR_RECLAMATION_OPTIQUE</t>
+  </si>
+  <si>
+    <t>/RETOUR_OPTIQUE/RETOUR_RECLAMATION_OPTIQUE/</t>
+  </si>
+  <si>
+    <t>RECLAM_OPTIQUE</t>
+  </si>
+  <si>
+    <t>optiquetramereclamationoptique</t>
+  </si>
+  <si>
+    <t>\RETOUR_OPTIQUE\RETOUR_PUBLIPOSTAGE_OPTIQUE</t>
+  </si>
+  <si>
+    <t>/RETOUR_OPTIQUE/RETOUR_PUBLIPOSTAGE_OPTIQUE/</t>
+  </si>
+  <si>
+    <t>optiqueretourpublipostage</t>
+  </si>
+  <si>
+    <t>Facture_Optique</t>
+  </si>
+  <si>
+    <t>\RETOUR_AUDIO\RETOUR_FACTURE_AUDIO</t>
+  </si>
+  <si>
+    <t>/RETOUR_AUDIO/RETOUR_FACTURE_AUDIO/</t>
+  </si>
+  <si>
+    <t>Facture_Audio</t>
+  </si>
+  <si>
+    <t>factureaudio</t>
+  </si>
+  <si>
+    <t>\RETOUR_AUDIO\RETOUR_RECLAMATION_AUDIO</t>
+  </si>
+  <si>
+    <t>/RETOUR_AUDIO/RETOUR_RECLAMATION_AUDIO/</t>
+  </si>
+  <si>
+    <t>reclamation_Audio</t>
+  </si>
+  <si>
+    <t>reclamationaudio</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_PEC/</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_PEC</t>
+  </si>
+  <si>
+    <t>Saisie OK/KO</t>
+  </si>
+  <si>
+    <t>Trame_retour-pechospi</t>
+  </si>
+  <si>
+    <t>retourhospipec</t>
+  </si>
+  <si>
+    <t>/RETOUR_DENTAIRE/RETOUR_PEC_DENTAIRE/</t>
+  </si>
+  <si>
+    <t>\RETOUR_DENTAIRE\RETOUR_PEC_DENTAIRE</t>
+  </si>
+  <si>
+    <t>PEC_Dentaire</t>
+  </si>
+  <si>
+    <t>retourpecdentaire</t>
+  </si>
+  <si>
+    <t>/RETOUR_OPTIQUE/RETOUR_PEC_OPTIQUE/</t>
+  </si>
+  <si>
+    <t>\RETOUR_OPTIQUE\RETOUR_PEC_OPTIQUE</t>
+  </si>
+  <si>
+    <t>PEC Optique</t>
+  </si>
+  <si>
+    <t>retourpecoptique</t>
+  </si>
+  <si>
+    <t>/RETOUR_AUDIO/RETOUR_PEC_AUDIO/</t>
+  </si>
+  <si>
+    <t>\RETOUR_AUDIO\RETOUR_PEC_AUDIO</t>
+  </si>
+  <si>
+    <t>PEC_AUDIO</t>
+  </si>
+  <si>
+    <t>retourpecaudio</t>
+  </si>
+  <si>
+    <t>/RETOUR_FAVBALMA/</t>
+  </si>
+  <si>
+    <t>\RETOUR_FAVBALMA</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>favbalma</t>
+  </si>
+  <si>
+    <t>INTERIALE</t>
+  </si>
+  <si>
+    <t>LAMIE</t>
+  </si>
+  <si>
+    <t>favbalmalamie</t>
+  </si>
+  <si>
+    <t>/RETOUR_MGEFI_GTO/Noemie/</t>
+  </si>
+  <si>
+    <t>\RETOUR_MGEFI_GTO\Noemie</t>
+  </si>
+  <si>
+    <t>profil</t>
+  </si>
+  <si>
+    <t>noemiehtpmgefi</t>
+  </si>
+  <si>
+    <t>NOEMIE HTP</t>
+  </si>
+  <si>
+    <t>/RETOUR_MGEFI_GTO/rejet def/</t>
+  </si>
+  <si>
+    <t>\RETOUR_MGEFI_GTO\rejet def</t>
+  </si>
+  <si>
+    <t>MGEFI_Rejets_saisies_noemie_HTP</t>
+  </si>
+  <si>
+    <t>Doublon</t>
+  </si>
+  <si>
+    <t>mgefigtomgefirejetsaisienoemiehtp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,13 +602,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -374,10 +636,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,24 +956,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0796AD-0BCD-474C-83F2-122B75657A4B}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="54.42578125" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -717,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -725,23 +989,23 @@
       <c r="D1">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" t="s">
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -781,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -790,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -813,13 +1077,255 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -831,15 +1337,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
     <col min="2" max="2" width="123.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
@@ -901,81 +1407,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1005,32 +1511,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>44259</v>
       </c>
     </row>
@@ -1066,23 +1572,23 @@
         <v>20210210</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1096,14 +1602,482 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB0534B-3F4E-416D-9B7D-095318FDA36D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4CD9D-2F26-498A-A73C-AF78B50BE3CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="244">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -743,12 +743,6 @@
     <t>TRAME_ALMERYS</t>
   </si>
   <si>
-    <t>/CBTP/</t>
-  </si>
-  <si>
-    <t>/ALMERYS/</t>
-  </si>
-  <si>
     <t>\RETOUR_RECHERCHE FACTURE INTERIALE\INTERIALE</t>
   </si>
   <si>
@@ -756,6 +750,24 @@
   </si>
   <si>
     <t>RECLAM_TIERS</t>
+  </si>
+  <si>
+    <t>/RETOUR_RECHERCHE FACTURE INTERIALE/INTERIALE/</t>
+  </si>
+  <si>
+    <t>.xlsx//nb fichier pdf</t>
+  </si>
+  <si>
+    <t>recherchefactureinteriale</t>
+  </si>
+  <si>
+    <t>Facture interiale</t>
+  </si>
+  <si>
+    <t>\CBTP\</t>
+  </si>
+  <si>
+    <t>\ALMERYS\</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1165,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,13 +1291,13 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
@@ -1301,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1313,7 +1325,7 @@
         <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
         <v>207</v>
@@ -1322,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1958,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2164,7 @@
         <v>135</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2344,7 +2356,7 @@
         <v>124</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2574,13 +2586,16 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="86.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2750,8 +2765,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,8 +2824,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,8 +2862,8 @@
       <c r="F1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>235</v>
+      <c r="G1" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
@@ -2879,8 +2894,8 @@
       <c r="F2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>236</v>
+      <c r="G2" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC4CD9D-2F26-498A-A73C-AF78B50BE3CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4783E-9548-468A-8B24-C40FD8AB39CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
     <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
     <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId9"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId10"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId10"/>
     <sheet name="Feuil11" sheetId="11" r:id="rId11"/>
     <sheet name="Feuil12" sheetId="12" r:id="rId12"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="244">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -650,9 +650,6 @@
     <t>PSC - Demat Hospi Rejet privée</t>
   </si>
   <si>
-    <t>\RETOUR_HOSPI\RETOUR_RC_INDETERMINABLE\</t>
-  </si>
-  <si>
     <t>/RETOUR_HOSPI/RETOUR_RC_INDETERMINABLE/</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>\ALMERYS\</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC_INDETERMINABLE</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,26 +1286,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15503F1A-D2E8-493C-A21F-A2BC30D6F910}">
-  <sheetPr codeName="Feuil10"/>
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE629B-6EBA-4EEF-8B95-83B5EC8B9038}">
+  <sheetPr codeName="Feuil9"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-    <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="62.85546875" customWidth="1"/>
-    <col min="9" max="9" width="124.42578125" customWidth="1"/>
-    <col min="10" max="10" width="143.28515625" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1313,31 +1306,1038 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>207</v>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J1" t="s">
-        <v>241</v>
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>20210203</v>
+      </c>
+      <c r="J8">
+        <v>20210210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +2351,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,102 +2394,6 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J5" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
@@ -1840,113 +2744,23 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8123B4EC-0D73-4141-96A1-9DBD866699B0}">
   <sheetPr codeName="Feuil12"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1957,8 +2771,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>167</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -2164,7 +2978,7 @@
         <v>135</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2356,7 +3170,7 @@
         <v>124</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2492,19 +3306,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>55</v>
@@ -2513,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2529,50 +3343,117 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0815CED-B4AB-48E0-A37D-F2254F8395E5}">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" t="s">
-        <v>206</v>
+      <c r="H1" s="3">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2583,18 +3464,19 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E5E58-7999-4AA4-BBEB-6B72029F6FEF}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" customWidth="1"/>
     <col min="10" max="10" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2628,6 +3510,166 @@
       </c>
       <c r="J1" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +3682,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2660,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2672,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2681,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
         <v>213</v>
-      </c>
-      <c r="J1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2728,31 +3770,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="H1" s="2">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2766,7 +3808,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>201</v>
@@ -2824,8 +3866,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,31 +3890,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2880,31 +3922,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2917,19 +3959,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE629B-6EBA-4EEF-8B95-83B5EC8B9038}">
-  <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15503F1A-D2E8-493C-A21F-A2BC30D6F910}">
+  <sheetPr codeName="Feuil10"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="62.85546875" customWidth="1"/>
+    <col min="9" max="9" width="124.42578125" customWidth="1"/>
+    <col min="10" max="10" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2937,1038 +3986,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>238</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="4">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>20210203</v>
-      </c>
-      <c r="J8">
-        <v>20210210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>190</v>
-      </c>
-      <c r="J26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>181</v>
-      </c>
-      <c r="J34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
-      <c r="J37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>110</v>
+        <v>206</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB4783E-9548-468A-8B24-C40FD8AB39CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC2FCA6-7D8A-4679-B8AC-EDDEEA0D17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="247">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -767,7 +767,16 @@
     <t>\ALMERYS\</t>
   </si>
   <si>
-    <t>\RETOUR_HOSPI\RETOUR_RC_INDETERMINABLE</t>
+    <t>Saisie RIB</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC INDETERMINABLE</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR DEMAT/RETOUR_DEMAT QUOTIDIEN/</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR_DEMAT QUOTIDIEN\</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1174,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>243</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -2771,8 +2780,8 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3355,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,8 +3475,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3475,105 +3484,106 @@
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
     <col min="9" max="9" width="57.28515625" customWidth="1"/>
     <col min="10" max="10" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3581,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>97</v>
@@ -3590,22 +3600,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3625,7 +3635,7 @@
         <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
         <v>170</v>
@@ -3637,7 +3647,7 @@
         <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3645,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
@@ -3654,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3682,8 +3692,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,7 +3760,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3807,8 +3817,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>200</v>
@@ -3850,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>203</v>
@@ -3866,8 +3876,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,7 +3974,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\SAILS\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB0534B-3F4E-416D-9B7D-095318FDA36D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,8 @@
     <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
     <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
     <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
-    <sheet name="Feuil10" sheetId="10" r:id="rId9"/>
-    <sheet name="Feuil9" sheetId="9" r:id="rId10"/>
+    <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
+    <sheet name="Feuil10" sheetId="10" r:id="rId10"/>
     <sheet name="Feuil11" sheetId="11" r:id="rId11"/>
     <sheet name="Feuil12" sheetId="12" r:id="rId12"/>
   </sheets>
@@ -761,7 +760,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1148,11 +1147,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0796AD-0BCD-474C-83F2-122B75657A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1274,26 +1273,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15503F1A-D2E8-493C-A21F-A2BC30D6F910}">
-  <sheetPr codeName="Feuil10"/>
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil9"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="62.85546875" customWidth="1"/>
-    <col min="9" max="9" width="124.42578125" customWidth="1"/>
-    <col min="10" max="10" width="143.28515625" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1301,31 +1293,1038 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>20210203</v>
+      </c>
+      <c r="J8">
+        <v>20210210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" t="s">
         <v>167</v>
       </c>
-      <c r="G1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +2333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83343ADD-251B-44F1-965F-4679041B7F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -1826,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8123B4EC-0D73-4141-96A1-9DBD866699B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1941,7 +2940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
@@ -2515,7 +3514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0815CED-B4AB-48E0-A37D-F2254F8395E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -2569,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E5E58-7999-4AA4-BBEB-6B72029F6FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -2621,7 +3620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF513-09DB-4E32-91A7-01A0B54814CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
@@ -2688,7 +3687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54D00E-5B46-45AE-9772-F191FD77EB49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -2746,12 +3745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D3F714-F58B-4245-BDE8-E03923E9658C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +3804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8B8CF5-393F-4822-9011-DBA5E146BC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -2902,19 +3901,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE629B-6EBA-4EEF-8B95-83B5EC8B9038}">
-  <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:J42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil10"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="62.85546875" customWidth="1"/>
+    <col min="9" max="9" width="124.42578125" customWidth="1"/>
+    <col min="10" max="10" width="143.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2922,1038 +3928,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="4">
-        <v>44259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>20210203</v>
-      </c>
-      <c r="J8">
-        <v>20210210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>190</v>
-      </c>
-      <c r="J26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>133</v>
-      </c>
-      <c r="J28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>180</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>181</v>
-      </c>
-      <c r="J34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
-      <c r="J37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>169</v>
-      </c>
-      <c r="J40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" t="s">
-        <v>178</v>
-      </c>
-      <c r="G41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H42">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC2FCA6-7D8A-4679-B8AC-EDDEEA0D17F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EAA1C4-4E3E-49E9-AF8A-EA0BA3308816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView minimized="1" xWindow="-22845" yWindow="3795" windowWidth="13230" windowHeight="9855" activeTab="4" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -767,16 +767,16 @@
     <t>\ALMERYS\</t>
   </si>
   <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC_INDETERMINABLE</t>
+  </si>
+  <si>
     <t>Saisie RIB</t>
   </si>
   <si>
-    <t>\RETOUR_HOSPI\RETOUR_RC INDETERMINABLE</t>
-  </si>
-  <si>
-    <t>/RETOUR_HOSPI/RETOUR DEMAT/RETOUR_DEMAT QUOTIDIEN/</t>
-  </si>
-  <si>
-    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR_DEMAT QUOTIDIEN\</t>
+    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR DEMAT TEMPO</t>
+  </si>
+  <si>
+    <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT TEMPO/</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -2781,7 +2781,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,8 +3354,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3365,7 +3365,8 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="9" max="9" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="9" max="9" width="54.7109375" customWidth="1"/>
     <col min="10" max="10" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3374,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3395,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -3475,8 +3476,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J1" t="s">
         <v>205</v>
@@ -3692,8 +3693,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,8 +3818,8 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>200</v>
@@ -3860,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>203</v>
@@ -3876,8 +3877,8 @@
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EAA1C4-4E3E-49E9-AF8A-EA0BA3308816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-22845" yWindow="3795" windowWidth="13230" windowHeight="9855" activeTab="4" xr2:uid="{87F25D38-CDB9-4022-A866-33E5A180A600}"/>
+    <workbookView xWindow="-22845" yWindow="3795" windowWidth="13230" windowHeight="9855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="Feuil11" sheetId="11" r:id="rId11"/>
     <sheet name="Feuil12" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -782,8 +781,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +799,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -843,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,6 +862,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,12 +1176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0796AD-0BCD-474C-83F2-122B75657A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FE629B-6EBA-4EEF-8B95-83B5EC8B9038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -2355,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83343ADD-251B-44F1-965F-4679041B7F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -2751,7 +2758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8123B4EC-0D73-4141-96A1-9DBD866699B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A2"/>
   <sheetViews>
@@ -2776,12 +2783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2DC675-4D16-4E63-B5EF-47394C6398A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,12 +3357,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0815CED-B4AB-48E0-A37D-F2254F8395E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3472,12 +3479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E5E58-7999-4AA4-BBEB-6B72029F6FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3651,49 +3658,50 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="12" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EEF513-09DB-4E32-91A7-01A0B54814CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3756,7 +3764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB54D00E-5B46-45AE-9772-F191FD77EB49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -3814,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D3F714-F58B-4245-BDE8-E03923E9658C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -3873,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8B8CF5-393F-4822-9011-DBA5E146BC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
@@ -3970,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15503F1A-D2E8-493C-A21F-A2BC30D6F910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="249">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -776,6 +776,12 @@
   </si>
   <si>
     <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT TEMPO/</t>
+  </si>
+  <si>
+    <t>/RETOUR_TPS/RETOUR_RECLAMATION_TIERS/ALMERYS/</t>
+  </si>
+  <si>
+    <t>\RETOUR_TPS\RETOUR_RECLAMATION_TIERS\ALMERYS</t>
   </si>
 </sst>
 </file>
@@ -862,7 +868,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2787,7 +2793,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3162,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>45</v>
@@ -3183,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>236</v>
@@ -3483,8 +3489,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,99 +3568,99 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3702,7 +3708,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,35 +3722,35 @@
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>213</v>
       </c>
     </row>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\01421\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09174D74-BCA5-4A2B-AAE0-A63047C90778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22845" yWindow="3795" windowWidth="13230" windowHeight="9855" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet name="Feuil11" sheetId="11" r:id="rId11"/>
     <sheet name="Feuil12" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="283">
   <si>
     <t>//10.128.1.2/almerys-out/Retour_Easytech_</t>
   </si>
@@ -595,9 +596,6 @@
     <t>\RETOUR_SANTECLAIR\RETOUR_FACT_SANTECLAIR_DENTAIRE</t>
   </si>
   <si>
-    <t>/RETOUR_SANTECLAIR/RETOUR_FACT_SANTECLAIR_DENTAIRE/</t>
-  </si>
-  <si>
     <t>Motif du retour</t>
   </si>
   <si>
@@ -622,18 +620,12 @@
     <t>\RETOUR_SANTECLAIR\RETOUR_FACT_SANTECLAIR_OPTIQUE</t>
   </si>
   <si>
-    <t>/RETOUR_SANTECLAIR/RETOUR_FACT_SANTECLAIR_OPTIQUE/</t>
-  </si>
-  <si>
     <t>Santeclair_Tableau_retours_Generals_Optique</t>
   </si>
   <si>
     <t>santeclairoptique</t>
   </si>
   <si>
-    <t>FACTURE_MGEFI OK</t>
-  </si>
-  <si>
     <t>\RETOUR_HOSPI\RETOUR DEMAT\RETOUR DEMAT QUOTIDIEN\</t>
   </si>
   <si>
@@ -649,9 +641,6 @@
     <t>PSC - Demat Hospi Rejet privée</t>
   </si>
   <si>
-    <t>/RETOUR_HOSPI/RETOUR_RC_INDETERMINABLE/</t>
-  </si>
-  <si>
     <t>partRC_indeterminable</t>
   </si>
   <si>
@@ -664,9 +653,6 @@
     <t>RECLAM_HOSPI</t>
   </si>
   <si>
-    <t>/RETOUR_HOSPI/RETOUR_RECLAMATION_HOSPI/</t>
-  </si>
-  <si>
     <t>reclamhospi</t>
   </si>
   <si>
@@ -772,23 +758,140 @@
     <t>Saisie RIB</t>
   </si>
   <si>
-    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR DEMAT TEMPO</t>
-  </si>
-  <si>
-    <t>/RETOUR_HOSPI/RETOUR_DEMAT/RETOUR DEMAT TEMPO/</t>
-  </si>
-  <si>
-    <t>/RETOUR_TPS/RETOUR_RECLAMATION_TIERS/ALMERYS/</t>
-  </si>
-  <si>
     <t>\RETOUR_TPS\RETOUR_RECLAMATION_TIERS\ALMERYS</t>
+  </si>
+  <si>
+    <t>\RETOUR TPMEP</t>
+  </si>
+  <si>
+    <t>\RETOUR CURE THERMALE</t>
+  </si>
+  <si>
+    <t>\RETOUR CONVENTION</t>
+  </si>
+  <si>
+    <t>RECLAM_AUDIO</t>
+  </si>
+  <si>
+    <t>RECLAM_SE</t>
+  </si>
+  <si>
+    <t>\RETOUR_SE\RETOUR_RECLAMATION_SE\CBTP</t>
+  </si>
+  <si>
+    <t>\RETOUR_SE\RETOUR_RECLAMATION_SE\ALMERYS</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_PEC_HOSPI</t>
+  </si>
+  <si>
+    <t>Trame_Reclamation</t>
+  </si>
+  <si>
+    <t>\RETOUR_TPS\RETOUR_RECLAMATION_TIERS\CBTP</t>
+  </si>
+  <si>
+    <t>\RETOUR OPTIQUE\RETOUR PUBLIPOSTAGE OPTIQUE</t>
+  </si>
+  <si>
+    <t>\RETOUR OPTIQUE\RETOUR RECLAMATION OPTIQUE</t>
+  </si>
+  <si>
+    <t>\RETOUR OPTIQUE\RETOUR PEC OPTIQUE</t>
+  </si>
+  <si>
+    <t>\RETOUR AUDIO\RETOUR FACTURE AUDIO</t>
+  </si>
+  <si>
+    <t>\RETOUR AUDIO\RETOUR RECLAMATION AUDIO</t>
+  </si>
+  <si>
+    <t>\RETOUR AUDIO\RETOUR PEC AUDIO</t>
+  </si>
+  <si>
+    <t>\RETOUR MGEFI GTO\Noemie</t>
+  </si>
+  <si>
+    <t>\RETOUR MGEFI GTO\rejet def</t>
+  </si>
+  <si>
+    <t>\RETOUR SE\RETOUR RECLAMATION SE\CBTP</t>
+  </si>
+  <si>
+    <t>\RETOUR SE\RETOUR RECLAMATION SE\ALMERYS</t>
+  </si>
+  <si>
+    <t>\RETOUR DENTAIRE\RETOUR RECLAMATION DENTAIRE</t>
+  </si>
+  <si>
+    <t>\RETOUR DENTAIRE\RETOUR PEC DENTAIRE</t>
+  </si>
+  <si>
+    <t>\RETOUR DENTAIRE\RETOUR FACTURE DENTAIRE</t>
+  </si>
+  <si>
+    <t>\RETOUR TPS\RETOUR RECLAMATION TIERS\CBTP</t>
+  </si>
+  <si>
+    <t>\RETOUR TPS\RETOUR RECLAMATION TIERS\ALMERYS</t>
+  </si>
+  <si>
+    <t>\RETOUR SANTECLAIR\RETOUR FACT SANTECLAIR DENTAIRE</t>
+  </si>
+  <si>
+    <t>\RETOUR SANTECLAIR\RETOUR FACT SANTECLAIR OPTIQUE</t>
+  </si>
+  <si>
+    <t>\RETOUR HOSPI\RETOUR RECLAMATION HOSPI</t>
+  </si>
+  <si>
+    <t>PEC_Optique</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR_DEMAT_TEMPO</t>
+  </si>
+  <si>
+    <t>/RETOUR MAJ RIB CBTP/</t>
+  </si>
+  <si>
+    <t>/RETOUR MAJ AGAPS INTER AMC/</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_RC_FORCE</t>
+  </si>
+  <si>
+    <t>\RETOUR HOSPI\RETOUR RC INDETERMINABLE</t>
+  </si>
+  <si>
+    <t>\RETOUR HOSPI\RETOUR RC FORCE</t>
+  </si>
+  <si>
+    <t>\RETOUR FAVEOLE</t>
+  </si>
+  <si>
+    <t>\RETOUR FAVMGEFI</t>
+  </si>
+  <si>
+    <t>\RETOUR FAVBALMA</t>
+  </si>
+  <si>
+    <t>\RETOUR FAV</t>
+  </si>
+  <si>
+    <t>FAV</t>
+  </si>
+  <si>
+    <t>PSC - Demat Hospi Rejet</t>
+  </si>
+  <si>
+    <t>\RETOUR_HOSPI\RETOUR_DEMAT\RETOUR_DEMAT QUOTIDIEN\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,13 +908,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,7 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -868,7 +964,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,12 +1279,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,11 +1297,12 @@
     <col min="6" max="6" width="39.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="54.42578125" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -1235,8 +1333,14 @@
       <c r="J1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1267,8 +1371,14 @@
       <c r="J2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1297,6 +1407,12 @@
         <v>109</v>
       </c>
       <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1308,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
@@ -1823,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -1835,7 +1951,7 @@
         <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
         <v>127</v>
@@ -1844,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2368,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Feuil11"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -2389,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
         <v>54</v>
@@ -2398,22 +2514,22 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
         <v>129</v>
       </c>
       <c r="G1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2764,7 +2880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Feuil12"/>
   <dimension ref="A2"/>
   <sheetViews>
@@ -2789,573 +2905,698 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="59.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" customWidth="1"/>
     <col min="8" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="58.7109375" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44.85546875" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G3" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="2">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J3" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="K3" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="G6" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K6" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>177</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G7" t="s">
         <v>177</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>176</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>183</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F8" t="s">
         <v>184</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G8" t="s">
         <v>183</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
         <v>181</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="K8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" t="s">
-        <v>187</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>208</v>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3363,12 +3604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3388,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3409,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>105</v>
@@ -3420,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -3452,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3485,12 +3726,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,15 +3742,16 @@
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" customWidth="1"/>
     <col min="9" max="9" width="57.28515625" customWidth="1"/>
-    <col min="10" max="10" width="48.28515625" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="C1" t="s">
         <v>97</v>
@@ -3530,18 +3772,21 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -3562,18 +3807,21 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3599,13 +3847,16 @@
       <c r="J3" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>97</v>
@@ -3629,15 +3880,18 @@
         <v>95</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>97</v>
@@ -3663,36 +3917,42 @@
       <c r="J5" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="K5" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3703,12 +3963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,15 +3979,16 @@
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" customWidth="1"/>
     <col min="9" max="9" width="52.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -3739,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -3748,16 +4009,22 @@
         <v>0</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G6" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
@@ -3770,12 +4037,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,31 +4062,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H1" s="2">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3828,12 +4095,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,39 +4113,47 @@
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" customWidth="1"/>
     <col min="9" max="9" width="71" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="56" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>203</v>
+        <v>281</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3887,12 +4162,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Feuil8"/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,31 +4190,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H1" s="2">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3947,31 +4222,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3984,12 +4259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Feuil10"/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4010,32 +4285,32 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>237</v>
+      <c r="B1" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Inovcom.xlsx
+++ b/Inovcom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjetOdilon\Automatisation-reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Felana reporting\Automatisation-reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09174D74-BCA5-4A2B-AAE0-A63047C90778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DF6B14-8359-4218-8EDB-C961D489E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4099,13 +4099,13 @@
   <sheetPr codeName="Feuil7"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.140625" customWidth="1"/>
